--- a/data/trans_orig/P19C10_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P19C10_2023-Habitat-trans_orig.xlsx
@@ -551,7 +551,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según si el motivo por su última visita al dentista fue por dolor de mandíbula / solo 2023 en 2023 (tasa de respuesta: 99,54%)</t>
+          <t>Población según si el motivo por su última visita al dentista fue por dolor de mandíbula en 2023 (tasa de respuesta: 99,54%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P19C10_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P19C10_2023-Habitat-trans_orig.xlsx
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6546</v>
+        <v>6596</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.001972968360697865</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.009925589463396882</v>
+        <v>0.010000736407609</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>2185</v>
+        <v>2264</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0009709942872094328</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.003094491728674805</v>
+        <v>0.003206590725865753</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -783,19 +783,19 @@
         <v>1987</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7194</v>
+        <v>7393</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001454880111571818</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0002518605167886963</v>
+        <v>0.0002535371628680799</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.005268049576360483</v>
+        <v>0.005413313457010652</v>
       </c>
     </row>
     <row r="5">
@@ -812,16 +812,16 @@
         <v>658230</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>652985</v>
+        <v>652935</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>659531</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9980270316393021</v>
+        <v>0.9980270316393022</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9900744105366032</v>
+        <v>0.989999263592391</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -833,7 +833,7 @@
         <v>705463</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>703964</v>
+        <v>703885</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>706149</v>
@@ -842,7 +842,7 @@
         <v>0.9990290057127906</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9969055082713267</v>
+        <v>0.9967934092741377</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -854,19 +854,19 @@
         <v>1363693</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1358486</v>
+        <v>1358287</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1365336</v>
+        <v>1365334</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9985451198884283</v>
+        <v>0.9985451198884281</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9947319504236397</v>
+        <v>0.9945866865429893</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9997481394832114</v>
+        <v>0.9997464628371318</v>
       </c>
     </row>
     <row r="6">
@@ -961,16 +961,16 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10156</v>
+        <v>12651</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.002752603859442197</v>
+        <v>0.002752603859442198</v>
       </c>
       <c r="H7" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.009994765558916586</v>
+        <v>0.01244955983410903</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>10</v>
@@ -979,19 +979,19 @@
         <v>7604</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3759</v>
+        <v>3820</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>13813</v>
+        <v>13731</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.007256888691334516</v>
+        <v>0.007256888691334515</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.003587174046360523</v>
+        <v>0.003646096186839426</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01318306541415015</v>
+        <v>0.01310517189905146</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>12</v>
@@ -1000,19 +1000,19 @@
         <v>10401</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>5627</v>
+        <v>5559</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>19061</v>
+        <v>18741</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.005039231753754726</v>
+        <v>0.005039231753754725</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.002726069822353577</v>
+        <v>0.002693493793272694</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.009235077195406574</v>
+        <v>0.009080225770269146</v>
       </c>
     </row>
     <row r="8">
@@ -1029,16 +1029,16 @@
         <v>1013383</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1006024</v>
+        <v>1003529</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>1016180</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9972473961405578</v>
+        <v>0.9972473961405579</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9900052344410829</v>
+        <v>0.9875504401658909</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1050,19 +1050,19 @@
         <v>1040180</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1033971</v>
+        <v>1034053</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1044025</v>
+        <v>1043964</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9927431113086655</v>
+        <v>0.9927431113086654</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9868169345858498</v>
+        <v>0.9868948281009486</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9964128259536393</v>
+        <v>0.9963539038131606</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2410</v>
@@ -1071,19 +1071,19 @@
         <v>2053563</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2044903</v>
+        <v>2045223</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2058337</v>
+        <v>2058405</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9949607682462452</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9907649228045935</v>
+        <v>0.9909197742297312</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9972739301776462</v>
+        <v>0.9973065062067273</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>5053</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1321</v>
+        <v>1334</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12740</v>
+        <v>12293</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.006528465557626098</v>
+        <v>0.006528465557626097</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001706564819115411</v>
+        <v>0.001723685031038786</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01646016028617626</v>
+        <v>0.01588189257550169</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -1196,19 +1196,19 @@
         <v>5718</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2653</v>
+        <v>2693</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>11431</v>
+        <v>10869</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.00718897832780996</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003335118295538743</v>
+        <v>0.00338567684832619</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01437195026921659</v>
+        <v>0.01366613382147602</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>12</v>
@@ -1217,19 +1217,19 @@
         <v>10771</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5291</v>
+        <v>5592</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>18637</v>
+        <v>18572</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.006863212281004448</v>
+        <v>0.006863212281004446</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.003371279486981322</v>
+        <v>0.003563522072259011</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01187574444966783</v>
+        <v>0.01183426953486222</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>768955</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>761268</v>
+        <v>761715</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>772687</v>
+        <v>772674</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9934715344423738</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9835398397138237</v>
+        <v>0.9841181074244988</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9982934351808845</v>
+        <v>0.9982763149689612</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1016</v>
@@ -1267,19 +1267,19 @@
         <v>789627</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>783914</v>
+        <v>784476</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>792692</v>
+        <v>792652</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.99281102167219</v>
+        <v>0.9928110216721899</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9856280497307846</v>
+        <v>0.9863338661785245</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9966648817044613</v>
+        <v>0.9966143231516738</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1667</v>
@@ -1288,19 +1288,19 @@
         <v>1558582</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1550716</v>
+        <v>1550781</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1564062</v>
+        <v>1563761</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9931367877189957</v>
+        <v>0.9931367877189955</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9881242555503322</v>
+        <v>0.9881657304651378</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9966287205130187</v>
+        <v>0.996436477927741</v>
       </c>
     </row>
     <row r="12">
@@ -1395,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7246</v>
+        <v>6116</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.001691661946401995</v>
@@ -1404,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.007643676362528353</v>
+        <v>0.006451584065600774</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>12</v>
@@ -1413,19 +1413,19 @@
         <v>8977</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4747</v>
+        <v>4486</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>16201</v>
+        <v>16119</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.008341380257587152</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.00441055104888608</v>
+        <v>0.004168371726276879</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01505421957318378</v>
+        <v>0.01497796283990684</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>14</v>
@@ -1434,19 +1434,19 @@
         <v>10580</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>5742</v>
+        <v>5955</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>17970</v>
+        <v>17305</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.005227121742432882</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.002836855304293806</v>
+        <v>0.002942030865064518</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.008877654530605392</v>
+        <v>0.008549175034928662</v>
       </c>
     </row>
     <row r="14">
@@ -1463,16 +1463,16 @@
         <v>946355</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>940713</v>
+        <v>941843</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>947959</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9983083380535978</v>
+        <v>0.9983083380535979</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9923563236374712</v>
+        <v>0.9935484159343984</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1484,19 +1484,19 @@
         <v>1067193</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1059969</v>
+        <v>1060051</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1071423</v>
+        <v>1071684</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9916586197424128</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.984945780426816</v>
+        <v>0.9850220371600932</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.995589448951114</v>
+        <v>0.995831628273723</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2462</v>
@@ -1505,19 +1505,19 @@
         <v>2013549</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2006159</v>
+        <v>2006824</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2018387</v>
+        <v>2018174</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9947728782575671</v>
+        <v>0.994772878257567</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9911223454693946</v>
+        <v>0.9914508249650713</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9971631446957067</v>
+        <v>0.9970579691349356</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>10755</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5520</v>
+        <v>5415</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>21445</v>
+        <v>20502</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.003165421777846134</v>
+        <v>0.003165421777846135</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.00162456209404441</v>
+        <v>0.001593632443827996</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.006311647479383078</v>
+        <v>0.006034188647817207</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>32</v>
@@ -1630,19 +1630,19 @@
         <v>22984</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>15679</v>
+        <v>15317</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>32565</v>
+        <v>32359</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.006339570021474907</v>
+        <v>0.006339570021474908</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004324573744528856</v>
+        <v>0.004224772903958522</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.008982351092309425</v>
+        <v>0.008925572661733721</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>41</v>
@@ -1651,19 +1651,19 @@
         <v>33739</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>24051</v>
+        <v>24511</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>47497</v>
+        <v>46340</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.004803967007297226</v>
+        <v>0.004803967007297227</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.003424482217022361</v>
+        <v>0.003490097040619472</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.006762913157927819</v>
+        <v>0.006598243935409579</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>3386923</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3376233</v>
+        <v>3377176</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3392158</v>
+        <v>3392263</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9968345782221539</v>
+        <v>0.9968345782221538</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9936883525206173</v>
+        <v>0.9939658113521828</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9983754379059556</v>
+        <v>0.9984063675561718</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5185</v>
@@ -1701,19 +1701,19 @@
         <v>3602464</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3592883</v>
+        <v>3593089</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3609769</v>
+        <v>3610131</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9936604299785251</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9910176489076905</v>
+        <v>0.9910744273382661</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9956754262554711</v>
+        <v>0.9957752270960413</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8429</v>
@@ -1722,19 +1722,19 @@
         <v>6989386</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6975628</v>
+        <v>6976785</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6999074</v>
+        <v>6998614</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9951960329927029</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9932370868420721</v>
+        <v>0.9934017560645905</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9965755177829775</v>
+        <v>0.9965099029593807</v>
       </c>
     </row>
     <row r="18">
